--- a/build/jig/branches.xlsx
+++ b/build/jig/branches.xlsx
@@ -24,13 +24,13 @@
     <t/>
   </si>
   <si>
-    <t>クラス名</t>
+    <t>Class name</t>
   </si>
   <si>
-    <t>メソッドシグネチャ</t>
+    <t>Signature</t>
   </si>
   <si>
-    <t>分岐数</t>
+    <t>Number of divisions</t>
   </si>
 </sst>
 </file>
@@ -81,9 +81,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="8.37890625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="17.54296875" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="6.54296875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="11.1875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="9.44921875" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="18.9609375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -111,9 +111,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="8.37890625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="17.54296875" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="6.54296875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="11.1875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="9.44921875" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="18.9609375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -141,9 +141,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="8.37890625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="17.54296875" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="6.54296875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="11.1875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="9.44921875" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="18.9609375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
